--- a/Reporting/Silver_tables/oc_rates_2024-08-30.xlsx
+++ b/Reporting/Silver_tables/oc_rates_2024-08-30.xlsx
@@ -516,19 +516,19 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2549</t>
+          <t>1.2341</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1.2484</t>
+          <t>1.2277</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12510026.19993034</v>
+        <v>12302965.18101717</v>
       </c>
       <c r="J2" t="n">
-        <v>12445451.15090653</v>
+        <v>12239397.28211107</v>
       </c>
       <c r="K2" t="n">
         <v>9969282.198277999</v>
@@ -565,19 +565,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1755</t>
+          <t>1.1731</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1.1704</t>
+          <t>1.1682</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>28621389.13022039</v>
+        <v>28564134.55637802</v>
       </c>
       <c r="J3" t="n">
-        <v>28499272.53502885</v>
+        <v>28445886.39803734</v>
       </c>
       <c r="K3" t="n">
         <v>24349212.12443924</v>
@@ -614,19 +614,19 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1677</t>
+          <t>1.1630</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1.1601</t>
+          <t>1.1560</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>39683855.18038272</v>
+        <v>39523777.59435793</v>
       </c>
       <c r="J4" t="n">
-        <v>39425102.26215018</v>
+        <v>39287613.49416699</v>
       </c>
       <c r="K4" t="n">
         <v>33985002.30675198</v>
@@ -663,19 +663,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2705</t>
+          <t>1.2706</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1.2628</t>
+          <t>1.2629</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>23930581.07521803</v>
+        <v>23931419.57725106</v>
       </c>
       <c r="J5" t="n">
-        <v>23783903.90957981</v>
+        <v>23785981.74204206</v>
       </c>
       <c r="K5" t="n">
         <v>18834989.16981226</v>
@@ -712,19 +712,19 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.1392</t>
+          <t>1.0433</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1.1349</t>
+          <t>1.0386</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>9971005.577661399</v>
+        <v>9131774.751611093</v>
       </c>
       <c r="J6" t="n">
-        <v>9933166.795287099</v>
+        <v>9090570.840332821</v>
       </c>
       <c r="K6" t="n">
         <v>8752541.877823157</v>
@@ -761,19 +761,19 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1846</t>
+          <t>1.1734</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1.1702</t>
+          <t>1.1577</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>22216256.08697999</v>
+        <v>22007644.78063424</v>
       </c>
       <c r="J7" t="n">
-        <v>21946391.88942506</v>
+        <v>21712656.1963739</v>
       </c>
       <c r="K7" t="n">
         <v>18755015.76020164</v>
@@ -810,19 +810,19 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2545</t>
+          <t>1.2338</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1.2482</t>
+          <t>1.2274</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>91221313.46949995</v>
+        <v>89716931.46531269</v>
       </c>
       <c r="J8" t="n">
-        <v>90760873.14210394</v>
+        <v>89252290.29834427</v>
       </c>
       <c r="K8" t="n">
         <v>72716269.18655951</v>
@@ -859,19 +859,19 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.1760</t>
+          <t>1.1734</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1.1710</t>
+          <t>1.1685</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>207396139.2709939</v>
+        <v>206946104.181058</v>
       </c>
       <c r="J9" t="n">
-        <v>206512693.4234917</v>
+        <v>206088736.3886454</v>
       </c>
       <c r="K9" t="n">
         <v>176363351.7867463</v>
@@ -908,19 +908,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.1663</t>
+          <t>1.1642</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1.1594</t>
+          <t>1.1572</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>289342293.4463674</v>
+        <v>288804828.3123875</v>
       </c>
       <c r="J10" t="n">
-        <v>287622823.8138157</v>
+        <v>287086110.0588368</v>
       </c>
       <c r="K10" t="n">
         <v>248076813.576464</v>
@@ -957,19 +957,19 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.2663</t>
+          <t>1.2656</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1.2586</t>
+          <t>1.2581</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>180464617.1927128</v>
+        <v>180367310.0677014</v>
       </c>
       <c r="J11" t="n">
-        <v>179370708.2385674</v>
+        <v>179298758.9131015</v>
       </c>
       <c r="K11" t="n">
         <v>142518467.8422975</v>
@@ -1006,19 +1006,19 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.1024</t>
+          <t>1.0429</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1.0980</t>
+          <t>1.0382</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>74259484.98705924</v>
+        <v>70254109.34065263</v>
       </c>
       <c r="J12" t="n">
-        <v>73964057.0565145</v>
+        <v>69936098.88265988</v>
       </c>
       <c r="K12" t="n">
         <v>67364365.1903469</v>
@@ -1055,19 +1055,19 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.1842</t>
+          <t>1.1732</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1.1686</t>
+          <t>1.1574</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>161799500.2943668</v>
+        <v>160294743.4683668</v>
       </c>
       <c r="J13" t="n">
-        <v>159676334.5401126</v>
+        <v>158147944.9326134</v>
       </c>
       <c r="K13" t="n">
         <v>136635585.8383964</v>
@@ -1104,19 +1104,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.2655</t>
+          <t>1.2521</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1.2589</t>
+          <t>1.2460</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>402133741.1144369</v>
+        <v>397873726.1748983</v>
       </c>
       <c r="J14" t="n">
-        <v>400044093.9435951</v>
+        <v>395936611.4664671</v>
       </c>
       <c r="K14" t="n">
         <v>317769257</v>
@@ -1153,19 +1153,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.1785</t>
+          <t>1.1750</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.1727</t>
+          <t>1.1693</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>369354768.5705044</v>
+        <v>368245822.1146331</v>
       </c>
       <c r="J15" t="n">
-        <v>367533647.3925558</v>
+        <v>366462396.8984905</v>
       </c>
       <c r="K15" t="n">
         <v>313397818</v>
@@ -1202,19 +1202,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.1955</t>
+          <t>1.1848</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1.1852</t>
+          <t>1.1749</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>723313575.0257941</v>
+        <v>716821903.1259398</v>
       </c>
       <c r="J16" t="n">
-        <v>717054193.1455584</v>
+        <v>710799371.7449329</v>
       </c>
       <c r="K16" t="n">
         <v>605007545</v>
@@ -1251,19 +1251,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.4712</t>
+          <t>1.4671</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1.4617</t>
+          <t>1.4565</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>497140803.0648801</v>
+        <v>495754042.2034594</v>
       </c>
       <c r="J17" t="n">
-        <v>493953047.0410743</v>
+        <v>492190950.3023084</v>
       </c>
       <c r="K17" t="n">
         <v>337921159.88</v>
@@ -1300,19 +1300,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.3658</t>
+          <t>1.3536</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1.3589</t>
+          <t>1.3463</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1642024198.034491</v>
+        <v>1627429963.077975</v>
       </c>
       <c r="J18" t="n">
-        <v>1633742205.559203</v>
+        <v>1618607295.182668</v>
       </c>
       <c r="K18" t="n">
         <v>1202284483.67</v>
@@ -1390,19 +1390,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.1769</t>
+          <t>0.9730</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1.1658</t>
+          <t>0.9682</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>165437953.4396274</v>
+        <v>136781515.9438402</v>
       </c>
       <c r="J20" t="n">
-        <v>163876336.8309563</v>
+        <v>136097475.0300883</v>
       </c>
       <c r="K20" t="n">
         <v>140573820</v>
@@ -1439,19 +1439,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.1817</t>
+          <t>1.1713</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>1.1678</t>
+          <t>1.1557</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>266818181.6113112</v>
+        <v>264468162.0452353</v>
       </c>
       <c r="J21" t="n">
-        <v>263680340.6944917</v>
+        <v>260948624.6542257</v>
       </c>
       <c r="K21" t="n">
         <v>225787422.2</v>
@@ -1488,19 +1488,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.2554</t>
+          <t>1.2343</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.2489</t>
+          <t>1.2280</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>126110580.4836962</v>
+        <v>123997623.6500393</v>
       </c>
       <c r="J22" t="n">
-        <v>125458296.1785889</v>
+        <v>123357867.095486</v>
       </c>
       <c r="K22" t="n">
         <v>100457811.9423819</v>
@@ -1537,19 +1537,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.1763</t>
+          <t>1.1715</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1.1711</t>
+          <t>1.1667</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>78560339.35590748</v>
+        <v>78242583.52466245</v>
       </c>
       <c r="J23" t="n">
-        <v>78213447.65621457</v>
+        <v>77917743.50720447</v>
       </c>
       <c r="K23" t="n">
         <v>66786126.82895081</v>
@@ -1586,19 +1586,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.1657</t>
+          <t>1.1615</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.1580</t>
+          <t>1.1550</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>121842820.7601879</v>
+        <v>121410146.5617619</v>
       </c>
       <c r="J24" t="n">
-        <v>121046135.4635512</v>
+        <v>120731446.3189127</v>
       </c>
       <c r="K24" t="n">
         <v>104526637.8276016</v>
@@ -1635,19 +1635,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.2792</t>
+          <t>1.2785</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1.2714</t>
+          <t>1.2706</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>540771283.3526506</v>
+        <v>540474070.7872138</v>
       </c>
       <c r="J25" t="n">
-        <v>537467823.75283</v>
+        <v>537144822.2328752</v>
       </c>
       <c r="K25" t="n">
         <v>422742753.1560305</v>
@@ -1684,19 +1684,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.0984</t>
+          <t>1.0467</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1.0940</t>
+          <t>1.0419</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>39224125.82820932</v>
+        <v>37378955.26498956</v>
       </c>
       <c r="J26" t="n">
-        <v>39066418.66357397</v>
+        <v>37207059.76085624</v>
       </c>
       <c r="K26" t="n">
         <v>35709658.30281963</v>
@@ -1733,19 +1733,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.1808</t>
+          <t>1.1702</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1.1673</t>
+          <t>1.1547</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>67306655.11964636</v>
+        <v>66700621.92769729</v>
       </c>
       <c r="J27" t="n">
-        <v>66535887.11138184</v>
+        <v>65818059.66970614</v>
       </c>
       <c r="K27" t="n">
         <v>56999406.20611515</v>
@@ -1782,19 +1782,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.9618</t>
+          <t>1.8097</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>1.9618</t>
+          <t>1.8097</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>147133846.433838</v>
+        <v>135730463.573838</v>
       </c>
       <c r="J28" t="n">
-        <v>147133846.433838</v>
+        <v>135730463.573838</v>
       </c>
       <c r="K28" t="n">
         <v>75000000</v>
@@ -1921,19 +1921,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.2403</t>
+          <t>0.9594</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>1.2309</t>
+          <t>0.9502</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9062814.714387178</v>
+        <v>7010500.816688445</v>
       </c>
       <c r="J31" t="n">
-        <v>8993986.819583312</v>
+        <v>6942920.339602409</v>
       </c>
       <c r="K31" t="n">
         <v>7306996.80538732</v>
@@ -1970,19 +1970,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.4264</t>
+          <t>1.4094</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>1.4175</t>
+          <t>1.4003</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>93578072.15508811</v>
+        <v>92461675.7096546</v>
       </c>
       <c r="J32" t="n">
-        <v>92994370.84475015</v>
+        <v>91866429.05858228</v>
       </c>
       <c r="K32" t="n">
         <v>65603715.10217161</v>
@@ -2020,10 +2020,10 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>1570177.374407424</v>
+        <v>-1537181.334860319</v>
       </c>
       <c r="J33" t="n">
-        <v>1559329.65879091</v>
+        <v>-1537181.334860319</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2060,19 +2060,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.0591</t>
+          <t>1.0571</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>1.0547</t>
+          <t>1.0526</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>111055442.9083589</v>
+        <v>110838442.3643204</v>
       </c>
       <c r="J34" t="n">
-        <v>110592979.6229669</v>
+        <v>110370645.8996769</v>
       </c>
       <c r="K34" t="n">
         <v>104854360</v>
@@ -2109,19 +2109,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.2567</t>
+          <t>1.2577</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>1.2557</t>
+          <t>1.2574</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>9355101.023299688</v>
+        <v>9362170.477338219</v>
       </c>
       <c r="J35" t="n">
-        <v>9347727.431604903</v>
+        <v>9360130.06489489</v>
       </c>
       <c r="K35" t="n">
         <v>7444000</v>
@@ -2158,19 +2158,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.3800</t>
+          <t>1.3774</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.3744</t>
+          <t>1.3716</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>40498756.79984302</v>
+        <v>40420634.78025549</v>
       </c>
       <c r="J36" t="n">
-        <v>40332911.02663676</v>
+        <v>40250021.83309362</v>
       </c>
       <c r="K36" t="n">
         <v>29346118.35</v>
@@ -2207,19 +2207,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.3680</t>
+          <t>1.2901</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>1.3500</t>
+          <t>1.2733</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>8550865.889252445</v>
+        <v>8063478.713257381</v>
       </c>
       <c r="J37" t="n">
-        <v>8437967.139433764</v>
+        <v>7958806.92237996</v>
       </c>
       <c r="K37" t="n">
         <v>6250494.280198267</v>
@@ -2256,19 +2256,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.4604</t>
+          <t>1.4563</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>1.4219</t>
+          <t>1.4174</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>66332152.2772245</v>
+        <v>66144305.46982681</v>
       </c>
       <c r="J38" t="n">
-        <v>64580969.14238223</v>
+        <v>64378943.96638094</v>
       </c>
       <c r="K38" t="n">
         <v>45419925.22137435</v>
@@ -2305,19 +2305,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.4798</t>
+          <t>1.4741</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>1.4693</t>
+          <t>1.4635</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>372674758.1513624</v>
+        <v>371261975.320731</v>
       </c>
       <c r="J39" t="n">
-        <v>370036263.2913733</v>
+        <v>368583501.2885765</v>
       </c>
       <c r="K39" t="n">
         <v>251849048.2156419</v>
@@ -2354,19 +2354,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1.4734</t>
+          <t>1.4660</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1.4647</t>
+          <t>1.4571</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>260119090.4354394</v>
+        <v>258804676.8727921</v>
       </c>
       <c r="J40" t="n">
-        <v>258570252.9874412</v>
+        <v>257244028.1375771</v>
       </c>
       <c r="K40" t="n">
         <v>176539976.1502328</v>
@@ -2403,19 +2403,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6.5867</t>
+          <t>-4.3993</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>6.5522</t>
+          <t>-4.4051</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>9301204.605407735</v>
+        <v>-6212273.718798719</v>
       </c>
       <c r="J41" t="n">
-        <v>9252467.044635247</v>
+        <v>-6220451.550137345</v>
       </c>
       <c r="K41" t="n">
         <v>1412109.241021628</v>
@@ -2457,14 +2457,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1.1783</t>
+          <t>1.1711</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>227428.9884661414</v>
       </c>
       <c r="J42" t="n">
-        <v>224785.3428525887</v>
+        <v>223414.0216615816</v>
       </c>
       <c r="K42" t="n">
         <v>190770</v>
@@ -2501,19 +2501,19 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.2519</t>
+          <t>1.2475</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1.2462</t>
+          <t>1.2417</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>42568391.63647547</v>
+        <v>42417274.51938418</v>
       </c>
       <c r="J43" t="n">
-        <v>42372862.90861871</v>
+        <v>42219162.08496512</v>
       </c>
       <c r="K43" t="n">
         <v>34002236.7</v>
@@ -2550,19 +2550,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1.1727</t>
+          <t>1.1711</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1.1631</t>
+          <t>1.1616</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>10430619.14486073</v>
+        <v>10416977.82918391</v>
       </c>
       <c r="J44" t="n">
-        <v>10345920.58371414</v>
+        <v>10332648.9203062</v>
       </c>
       <c r="K44" t="n">
         <v>8894855.321130756</v>
@@ -2599,19 +2599,19 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1.1863</t>
+          <t>1.1805</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1.1764</t>
+          <t>1.1708</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>40516001.06071544</v>
+        <v>40319004.05237351</v>
       </c>
       <c r="J45" t="n">
-        <v>40179204.12694228</v>
+        <v>39987745.53584158</v>
       </c>
       <c r="K45" t="n">
         <v>34153820.22447626</v>
@@ -2648,19 +2648,19 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.4436</t>
+          <t>1.4477</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.4361</t>
+          <t>1.4374</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>124257837.3456159</v>
+        <v>124607494.7783585</v>
       </c>
       <c r="J46" t="n">
-        <v>123610451.8118919</v>
+        <v>123722876.9093619</v>
       </c>
       <c r="K46" t="n">
         <v>86072111.66435811</v>
@@ -2697,19 +2697,19 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.3239</t>
+          <t>1.3254</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1.3194</t>
+          <t>1.3184</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>99190189.00881456</v>
+        <v>99306093.20084247</v>
       </c>
       <c r="J47" t="n">
-        <v>98855318.52057576</v>
+        <v>98781920.62951268</v>
       </c>
       <c r="K47" t="n">
         <v>74923198.19266041</v>
@@ -2746,19 +2746,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.6860</t>
+          <t>0.6520</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1.5370</t>
+          <t>0.6464</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4988926.671061155</v>
+        <v>1929201.989807765</v>
       </c>
       <c r="J48" t="n">
-        <v>4547991.128198837</v>
+        <v>1912709.237537819</v>
       </c>
       <c r="K48" t="n">
         <v>2959041.456915566</v>
@@ -2800,14 +2800,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1.1557</t>
+          <t>1.1533</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1401967.430868639</v>
       </c>
       <c r="J49" t="n">
-        <v>1383520.435065601</v>
+        <v>1380692.752001503</v>
       </c>
       <c r="K49" t="n">
         <v>1197125.217665549</v>
@@ -2844,19 +2844,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1.2450</t>
+          <t>1.2404</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>1.2397</t>
+          <t>1.2348</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>85952432.40398647</v>
+        <v>85632536.89748685</v>
       </c>
       <c r="J50" t="n">
-        <v>85581227.84721443</v>
+        <v>85243219.22106434</v>
       </c>
       <c r="K50" t="n">
         <v>69035538.62278058</v>
@@ -2893,19 +2893,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.1732</t>
+          <t>1.1715</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1.1635</t>
+          <t>1.1619</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>36078905.81281201</v>
+        <v>36026670.99235424</v>
       </c>
       <c r="J51" t="n">
-        <v>35783499.03082255</v>
+        <v>35732702.44417808</v>
       </c>
       <c r="K51" t="n">
         <v>30753777.6585346</v>
@@ -2942,19 +2942,19 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1.1834</t>
+          <t>1.1776</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1.1739</t>
+          <t>1.1683</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>155656401.2986712</v>
+        <v>154895999.4759513</v>
       </c>
       <c r="J52" t="n">
-        <v>154409074.2682041</v>
+        <v>153671251.1885996</v>
       </c>
       <c r="K52" t="n">
         <v>131538349.0379445</v>
@@ -2991,19 +2991,19 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.3095</t>
+          <t>1.3091</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>1.3037</t>
+          <t>1.3021</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>296098725.5637098</v>
+        <v>296023602.0820932</v>
       </c>
       <c r="J53" t="n">
-        <v>294784647.5290132</v>
+        <v>294424239.6885509</v>
       </c>
       <c r="K53" t="n">
         <v>226121384.0567949</v>
@@ -3040,19 +3040,19 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.1419</t>
+          <t>1.0142</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>1.1244</t>
+          <t>1.0089</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>27834133.41541803</v>
+        <v>24721313.87814428</v>
       </c>
       <c r="J54" t="n">
-        <v>27409583.29874862</v>
+        <v>24593053.42140463</v>
       </c>
       <c r="K54" t="n">
         <v>24376103.93107309</v>
@@ -3094,14 +3094,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>1.1352</t>
+          <t>1.1339</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>13786944.40879886</v>
       </c>
       <c r="J55" t="n">
-        <v>13633189.42475125</v>
+        <v>13617046.04146404</v>
       </c>
       <c r="K55" t="n">
         <v>12009519.17762129</v>
